--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>-8.324513249481875</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.133943187312235</v>
+        <v>-8.133943187312234</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.799057473062144</v>
+        <v>-5.639342479455181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.11120721966665</v>
+        <v>-14.02177418677463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.4487797575302</v>
+        <v>-13.73984534427858</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.041243002798213</v>
+        <v>7.979066864509006</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.37561603131673</v>
+        <v>-3.803628593199483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.832039715507601</v>
+        <v>-3.402252070974729</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-0.7640058138323961</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.746515705873343</v>
+        <v>-0.7465157058733429</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4314863435109947</v>
+        <v>-0.4053468493888152</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9179704523744588</v>
+        <v>-0.9210099875385029</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9107278922511812</v>
+        <v>-0.906630849976815</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.032075116236742</v>
+        <v>1.0550017114852</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4214158342458247</v>
+        <v>-0.4065144162684133</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4054768222995856</v>
+        <v>-0.3757568683834686</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.422950841700641</v>
+        <v>-6.275010541147069</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.390275453526168</v>
+        <v>-5.662950139871107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.04982049318324</v>
+        <v>-11.44414346168956</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.980117148619812</v>
+        <v>2.094310594465843</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.205003256273248</v>
+        <v>2.766611231125263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.276661615062094</v>
+        <v>-4.587843818671729</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5405129096927935</v>
+        <v>-0.539544289339838</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4703760299154577</v>
+        <v>-0.4858909903478257</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9251768013866495</v>
+        <v>-0.9228110936584399</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2661030047648161</v>
+        <v>0.3209322796282351</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4763979045545866</v>
+        <v>0.4001026775995902</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5587333503045028</v>
+        <v>-0.5730301509417185</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-1.08307167761847</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.532172366656923</v>
+        <v>-1.532172366656924</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.035649025269625</v>
+        <v>4.625423557153726</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.391663896651223</v>
+        <v>-4.50476801968524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.610424462064476</v>
+        <v>-4.582865746460343</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.67912821549715</v>
+        <v>15.74314626633103</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.963035830581709</v>
+        <v>2.082159386537425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.827215854723765</v>
+        <v>1.659040216147169</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.2936988109052051</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.415482383565265</v>
+        <v>-0.4154823835652652</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7512301543721155</v>
+        <v>0.7046807251848005</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8076907392385065</v>
+        <v>-0.8151031419045937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8521673764184606</v>
+        <v>-0.8439440877366302</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.213460503095367</v>
+        <v>7.390275974111461</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.194722873784434</v>
+        <v>1.017848470436962</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.13155510740951</v>
+        <v>1.047579429281329</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>-4.319660735073572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.83111718416592</v>
+        <v>-4.831117184165921</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.319571615437364</v>
+        <v>-6.532419573131603</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.759437551073484</v>
+        <v>-9.115587868686168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.627137854400706</v>
+        <v>-10.17020301287181</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.612227851572331</v>
+        <v>4.05593316997769</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.104629753604589</v>
+        <v>1.207822318088986</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2403448374213022</v>
+        <v>-0.1822677484745139</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4900611056053418</v>
+        <v>-0.5078652239173724</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6810746900305303</v>
+        <v>-0.6884503026568546</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.73247117183855</v>
+        <v>-0.7772066748767728</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4952096837978047</v>
+        <v>0.5756742264559357</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1937235763378172</v>
+        <v>0.2040711021441587</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1270708283060442</v>
+        <v>0.02560921026707904</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.277877414945618</v>
+        <v>-5.584053510511422</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.93657925884796</v>
+        <v>-10.9968907580365</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.72564127624594</v>
+        <v>-18.56639422040367</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.73453501389971</v>
+        <v>11.08686777626724</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.824215075468634</v>
+        <v>3.311819158513939</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.28842488395103</v>
+        <v>-7.339054012948752</v>
       </c>
     </row>
     <row r="31">
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2683463645255981</v>
+        <v>-0.3297408534731953</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6745466764514676</v>
+        <v>-0.6557778210146137</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>-1</v>
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.407715196816862</v>
+        <v>1.336878192105543</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3658747292827959</v>
+        <v>0.449243935588989</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7222559433651138</v>
+        <v>-0.7678169156551121</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.836983546761698</v>
+        <v>-7.31974784912338</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.99390992709805</v>
+        <v>-14.78542650436866</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.70638113809481</v>
+        <v>-16.16250755661285</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.313741468219137</v>
+        <v>6.564739247369741</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-3.912379156191888</v>
+        <v>-4.059511143369322</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-5.657714397899423</v>
+        <v>-6.01213264532275</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.458985331952047</v>
+        <v>-0.4508801051267931</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.886395072833125</v>
+        <v>-0.8892301132427014</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.9431188259984331</v>
+        <v>-0.9440780674253064</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6807672874868035</v>
+        <v>0.657685347332165</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3559274034529642</v>
+        <v>-0.3885111551602391</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.4779874249272389</v>
+        <v>-0.5384430876881265</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>0.5323292951800701</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.84600445728826</v>
+        <v>-1.846004457288261</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.140505467569747</v>
+        <v>-4.04168704655669</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.965093895621663</v>
+        <v>-3.03572671947946</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.327832582539885</v>
+        <v>-5.162024695735555</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.698261926305508</v>
+        <v>2.58655518142865</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.106127326117913</v>
+        <v>3.933681278501406</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.190744062908101</v>
+        <v>1.685881416484986</v>
       </c>
     </row>
     <row r="43">
@@ -1277,7 +1277,7 @@
         <v>0.0729489467720662</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2529713884150706</v>
+        <v>-0.2529713884150707</v>
       </c>
     </row>
     <row r="44">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4443435650512367</v>
+        <v>-0.4482985170277733</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3580170147654761</v>
+        <v>-0.3286434110260755</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5581040990251336</v>
+        <v>-0.5588460635548466</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.493233824191546</v>
+        <v>0.5135304227855422</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7285812511131671</v>
+        <v>0.723384079226453</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2635001681933205</v>
+        <v>0.3080592509492419</v>
       </c>
     </row>
     <row r="46">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.008347048529597</v>
+        <v>-2.470314318009364</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.262104577233279</v>
+        <v>-4.439795563360209</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.2110900071172</v>
+        <v>-10.0749047643928</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.989335535838246</v>
+        <v>4.177072240668351</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.021201674367005</v>
+        <v>1.885186923703914</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.018068818489636</v>
+        <v>-5.256840315597952</v>
       </c>
     </row>
     <row r="49">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3051245614398389</v>
+        <v>-0.2510729621330002</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.424088438719088</v>
+        <v>-0.4445279928946689</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9790929906983968</v>
+        <v>-0.978156331351992</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6064181657025337</v>
+        <v>0.6653385759354032</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.290029161364711</v>
+        <v>0.2956774036615619</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.65536784142435</v>
+        <v>-0.6199728320870317</v>
       </c>
     </row>
     <row r="52">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.017159365533262</v>
+        <v>-1.037109172338638</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.158231583995972</v>
+        <v>-4.129470455736514</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-7.414087252711949</v>
+        <v>-7.377200410578608</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.349754135975976</v>
+        <v>2.456755543258036</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.142969059271644</v>
+        <v>-1.016732159993321</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-4.608377174309013</v>
+        <v>-4.525295368502923</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1037561511392146</v>
+        <v>-0.1049629658634036</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.425595342807395</v>
+        <v>-0.419461477967645</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.7572192246445223</v>
+        <v>-0.7587500531729666</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2881092022093455</v>
+        <v>0.3091094087721476</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1358626663834204</v>
+        <v>-0.1342216980710885</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.5700413866968829</v>
+        <v>-0.5621550864729769</v>
       </c>
     </row>
     <row r="58">
